--- a/data/trans_dic/P34B04_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34B04_R-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.09535787975726241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07660762518750915</v>
+        <v>0.07660762518750916</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.01565426978524139</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06394012650046284</v>
+        <v>0.06665164686903423</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06373607137097673</v>
+        <v>0.06300374129686971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0461440254290066</v>
+        <v>0.04379971131037527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003402724818507992</v>
+        <v>0.003397360552559445</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006807101945679169</v>
+        <v>0.006824853293286116</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001489634684485798</v>
+        <v>0.001483758102097741</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03981927156611822</v>
+        <v>0.03959626726177366</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04068928788194564</v>
+        <v>0.03956692064523298</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02471616750729697</v>
+        <v>0.02410016119550176</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1316400225642506</v>
+        <v>0.1338731476896268</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1337600420575635</v>
+        <v>0.140639943110506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1267311894814896</v>
+        <v>0.1285025642499972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04122407820118065</v>
+        <v>0.04070560431690336</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04217210156379458</v>
+        <v>0.04097195693174444</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01412115746966626</v>
+        <v>0.01286143114543062</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07765712766781344</v>
+        <v>0.07929616688356469</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07962903531164411</v>
+        <v>0.08141444262951382</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06697243305683191</v>
+        <v>0.0658554388045694</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04936207523592036</v>
+        <v>0.04756832800066834</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03932952443353682</v>
+        <v>0.04045274824880061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04042587711297363</v>
+        <v>0.04125939266348307</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003753551116254535</v>
+        <v>0.003751527641611838</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02528777403746855</v>
+        <v>0.02497774224691913</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02374330854605021</v>
+        <v>0.02356976421698331</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02042518849734846</v>
+        <v>0.02105812369759779</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09708807601260123</v>
+        <v>0.09605569996766257</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08027347145009314</v>
+        <v>0.08129898372108667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1115556928128221</v>
+        <v>0.1205817774477398</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01406351952649455</v>
+        <v>0.01354019638243899</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02137249496580195</v>
+        <v>0.02147503529375985</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0107109096542075</v>
+        <v>0.008464833212938401</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0502495135356357</v>
+        <v>0.05097899989791019</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04626687044066327</v>
+        <v>0.04651399029575629</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05740666394252936</v>
+        <v>0.05665542947149437</v>
       </c>
     </row>
     <row r="10">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0493909817896905</v>
+        <v>0.04957812824777343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03170802545714715</v>
+        <v>0.0294288071451333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009882033577118084</v>
+        <v>0.01049145239726639</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.007324473810112209</v>
+        <v>0.007603338062826801</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0270279970809892</v>
+        <v>0.02687142525955543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01441626164277007</v>
+        <v>0.01428665588594623</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01252115419910273</v>
+        <v>0.01180875427975212</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1047957496942339</v>
+        <v>0.1033331001927707</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08055524679362548</v>
+        <v>0.07753211786065409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05403121279900189</v>
+        <v>0.05816215777375552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01987738772946071</v>
+        <v>0.02029113878819463</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.03676054610261741</v>
+        <v>0.03773629802913838</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05528218939717371</v>
+        <v>0.0555386832989708</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03854169897235072</v>
+        <v>0.03676409859432148</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03994997988085289</v>
+        <v>0.03661425947947559</v>
       </c>
     </row>
     <row r="13">
@@ -987,7 +987,7 @@
         <v>0.0427842096852272</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.05702628413669485</v>
+        <v>0.05702628413669482</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0560173526938348</v>
+        <v>0.0555040224762891</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05271509730910789</v>
+        <v>0.04965691321771953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05187593745700603</v>
+        <v>0.05622159325033737</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008174753791923985</v>
+        <v>0.00846154731456206</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002418489059266267</v>
+        <v>0.002437843262005659</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01593476037054871</v>
+        <v>0.01595649263612133</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03572806934615181</v>
+        <v>0.03579250211001442</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02917904360221816</v>
+        <v>0.02875166892159203</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03870553917780319</v>
+        <v>0.03983013314601187</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1101679059221683</v>
+        <v>0.113320007512996</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1132175960714413</v>
+        <v>0.1112788768559508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1414890071361238</v>
+        <v>0.1479358710699812</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0401750547922061</v>
+        <v>0.03961845346879389</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02216642164134093</v>
+        <v>0.02429167163134596</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0519161421257958</v>
+        <v>0.0548690358449048</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06915737741331068</v>
+        <v>0.06768612634921715</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06103781585944909</v>
+        <v>0.06102874877724882</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08418056874237113</v>
+        <v>0.08755476915358189</v>
       </c>
     </row>
     <row r="16">
@@ -1096,7 +1096,7 @@
         <v>0.03109957358150081</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.0575343393951821</v>
+        <v>0.05753433939518211</v>
       </c>
     </row>
     <row r="17">
@@ -1107,29 +1107,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05182201113379085</v>
+        <v>0.05145178965154773</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02722271582195922</v>
+        <v>0.02775122827165495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.066532411781379</v>
+        <v>0.07032665495085653</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.004005506600910532</v>
+        <v>0.004004096332939319</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004027940858005669</v>
+        <v>0.00418844695522773</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0257888489679943</v>
+        <v>0.0256732782666881</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01748516708340517</v>
+        <v>0.01717355579784164</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03763843546218373</v>
+        <v>0.03825698867765036</v>
       </c>
     </row>
     <row r="18">
@@ -1140,29 +1140,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1299416778498461</v>
+        <v>0.1260547608110607</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09180963456103448</v>
+        <v>0.0867183103602014</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1642378364214642</v>
+        <v>0.168820364977843</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.03251917249442977</v>
+        <v>0.03254496539932842</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02366362336148841</v>
+        <v>0.02356623754680089</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06144595906418693</v>
+        <v>0.06337916495277601</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04989942210995396</v>
+        <v>0.0508338729015089</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0883523334219966</v>
+        <v>0.08503342374919093</v>
       </c>
     </row>
     <row r="19">
@@ -1183,7 +1183,7 @@
         <v>0.0587807435730743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.07719786658089747</v>
+        <v>0.07719786658089749</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.01644041267990033</v>
@@ -1192,7 +1192,7 @@
         <v>0.02774432696574761</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.02170481276895434</v>
+        <v>0.02170481276895433</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.05046556628678234</v>
@@ -1212,31 +1212,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0537108923424259</v>
+        <v>0.05459693635627426</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03322583121735141</v>
+        <v>0.0361757078408759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04872981695538896</v>
+        <v>0.04722921421372789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003471049048270382</v>
+        <v>0.003424489331113635</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01342545493435477</v>
+        <v>0.01366131775654954</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008890510585018009</v>
+        <v>0.007923421830281436</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03197296252606556</v>
+        <v>0.03304788871818606</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0283477830313668</v>
+        <v>0.02976922432677759</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03411065854850574</v>
+        <v>0.03028670734119973</v>
       </c>
     </row>
     <row r="21">
@@ -1247,31 +1247,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1276897301130243</v>
+        <v>0.136137147061484</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09140713531873521</v>
+        <v>0.09113716887599674</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1202974159018555</v>
+        <v>0.1192896169999442</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04531187300274784</v>
+        <v>0.0418847803512996</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05440970297776942</v>
+        <v>0.04991012795474054</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04502382042444016</v>
+        <v>0.04604737437963482</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07504783274453139</v>
+        <v>0.07275713151081209</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06262262124204486</v>
+        <v>0.06299303110709686</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06965804875559634</v>
+        <v>0.071302846704522</v>
       </c>
     </row>
     <row r="22">
@@ -1301,7 +1301,7 @@
         <v>0.01903080370416528</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.03680461737725583</v>
+        <v>0.03680461737725582</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.04016722059324995</v>
@@ -1310,7 +1310,7 @@
         <v>0.04633792304318348</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.06137223022713347</v>
+        <v>0.06137223022713348</v>
       </c>
     </row>
     <row r="23">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05757761428552479</v>
+        <v>0.05669665003595713</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05269176102343066</v>
+        <v>0.05680739013700684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06334278248091169</v>
+        <v>0.06255520077540463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001395628179369767</v>
+        <v>0.001396028368645744</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01050883892637148</v>
+        <v>0.01066810981300904</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02425058651321371</v>
+        <v>0.02405593939221957</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03002724420017362</v>
+        <v>0.03019644990327389</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03484256970464412</v>
+        <v>0.0363736443732141</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04840470897310991</v>
+        <v>0.04785652116447132</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.101015944597418</v>
+        <v>0.1000522035467291</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0963719477739759</v>
+        <v>0.1020355405186071</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1194913863819363</v>
+        <v>0.119273432349145</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01386086508943487</v>
+        <v>0.01263497884126429</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0320620603304619</v>
+        <v>0.03162779289435986</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05346714417125104</v>
+        <v>0.0534780137535275</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05286577469549623</v>
+        <v>0.05297914383093979</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05861091701616465</v>
+        <v>0.05980693129490075</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07952018967386182</v>
+        <v>0.08067438368990382</v>
       </c>
     </row>
     <row r="25">
@@ -1419,7 +1419,7 @@
         <v>0.02812343595760249</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.07146442916043187</v>
+        <v>0.07146442916043186</v>
       </c>
     </row>
     <row r="26">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04265414288870312</v>
+        <v>0.04276970412978569</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03610931076360412</v>
+        <v>0.03603925582579676</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1070387847282913</v>
+        <v>0.1095561475143339</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001174101601869539</v>
+        <v>0.001177514330636669</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003527087563688078</v>
+        <v>0.003550333744191289</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.005730805209561793</v>
+        <v>0.005271575504679347</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02178476655766539</v>
+        <v>0.02270265543404176</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01972751503532513</v>
+        <v>0.02099135815602077</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05716802489422428</v>
+        <v>0.0575237130677306</v>
       </c>
     </row>
     <row r="27">
@@ -1465,31 +1465,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07832832487243906</v>
+        <v>0.07751850694811732</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06674064561188417</v>
+        <v>0.06832506467148436</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1637070443910869</v>
+        <v>0.1634358487991042</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01138657404864466</v>
+        <v>0.01140793563729984</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01610834819404599</v>
+        <v>0.01682404427847277</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0219056185070347</v>
+        <v>0.02069754432602485</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03947583294003901</v>
+        <v>0.04097540037983952</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03654240926559633</v>
+        <v>0.03718284303721381</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08779248949586238</v>
+        <v>0.0861422172010602</v>
       </c>
     </row>
     <row r="28">
@@ -1510,7 +1510,7 @@
         <v>0.06349223262738188</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.08926204932698681</v>
+        <v>0.08926204932698684</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.007805267375663593</v>
@@ -1528,7 +1528,7 @@
         <v>0.0375216347427424</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.05276482242553932</v>
+        <v>0.05276482242553933</v>
       </c>
     </row>
     <row r="29">
@@ -1539,31 +1539,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06466499153713677</v>
+        <v>0.0661686480746638</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.055072770469287</v>
+        <v>0.05539991536464666</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07798213750462946</v>
+        <v>0.07868164208410783</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.005071056432791196</v>
+        <v>0.005337938118601711</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.009261965743335758</v>
+        <v>0.009440384299811999</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01426601239450893</v>
+        <v>0.01406229834877403</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03517489219078375</v>
+        <v>0.03544208575897292</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.03331372665902499</v>
+        <v>0.03297671956430141</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.04582638134240534</v>
+        <v>0.04686123819316569</v>
       </c>
     </row>
     <row r="30">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08362610303918493</v>
+        <v>0.08390372651144784</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.07200574211366807</v>
+        <v>0.07306654569645676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1025809501600712</v>
+        <v>0.1027763838132724</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01143637414242581</v>
+        <v>0.01125050515760773</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.01665639102556401</v>
+        <v>0.01683777980931075</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.0235318488746253</v>
+        <v>0.0226735186217207</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04555708915305601</v>
+        <v>0.04547412359662215</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.04217251805936301</v>
+        <v>0.04257874747128633</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.05932857648003088</v>
+        <v>0.05935586359239532</v>
       </c>
     </row>
     <row r="31">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18771</v>
+        <v>19567</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18723</v>
+        <v>18508</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14713</v>
+        <v>13965</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23128</v>
+        <v>22998</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23700</v>
+        <v>23046</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15692</v>
+        <v>15301</v>
       </c>
     </row>
     <row r="7">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38645</v>
+        <v>39301</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39293</v>
+        <v>41315</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40408</v>
+        <v>40972</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11841</v>
+        <v>11692</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12175</v>
+        <v>11829</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4463</v>
+        <v>4065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45104</v>
+        <v>46056</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46381</v>
+        <v>47421</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42521</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="8">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24954</v>
+        <v>24047</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19766</v>
+        <v>20331</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21452</v>
+        <v>21894</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25981</v>
+        <v>25662</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24353</v>
+        <v>24175</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22001</v>
+        <v>22683</v>
       </c>
     </row>
     <row r="11">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49081</v>
+        <v>48559</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40343</v>
+        <v>40859</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59197</v>
+        <v>63986</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7339</v>
+        <v>7066</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11180</v>
+        <v>11233</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5853</v>
+        <v>4626</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51626</v>
+        <v>52376</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>47454</v>
+        <v>47707</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61835</v>
+        <v>61026</v>
       </c>
     </row>
     <row r="12">
@@ -2119,29 +2119,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16005</v>
+        <v>16066</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10101</v>
+        <v>9375</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3123</v>
+        <v>3315</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>2610</v>
+        <v>2710</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17975</v>
+        <v>17871</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9441</v>
+        <v>9356</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8419</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="15">
@@ -2152,29 +2152,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33959</v>
+        <v>33485</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25662</v>
+        <v>24699</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17073</v>
+        <v>18379</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6779</v>
+        <v>6920</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>13101</v>
+        <v>13448</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36766</v>
+        <v>36937</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25240</v>
+        <v>24076</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26861</v>
+        <v>24619</v>
       </c>
     </row>
     <row r="16">
@@ -2259,31 +2259,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20949</v>
+        <v>20758</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19503</v>
+        <v>18371</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19357</v>
+        <v>20979</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3180</v>
+        <v>3291</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6724</v>
+        <v>6733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27258</v>
+        <v>27307</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>22096</v>
+        <v>21772</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30775</v>
+        <v>31669</v>
       </c>
     </row>
     <row r="19">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41201</v>
+        <v>42380</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41886</v>
+        <v>41169</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52796</v>
+        <v>55202</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15626</v>
+        <v>15410</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8585</v>
+        <v>9408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21907</v>
+        <v>23153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>52762</v>
+        <v>51640</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>46221</v>
+        <v>46214</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66933</v>
+        <v>69615</v>
       </c>
     </row>
     <row r="20">
@@ -2403,29 +2403,29 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11018</v>
+        <v>10940</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5750</v>
+        <v>5862</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13683</v>
+        <v>14464</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>914</v>
+        <v>950</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11146</v>
+        <v>11096</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7515</v>
+        <v>7381</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16278</v>
+        <v>16546</v>
       </c>
     </row>
     <row r="23">
@@ -2436,29 +2436,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27628</v>
+        <v>26802</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19392</v>
+        <v>18317</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33778</v>
+        <v>34720</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>7108</v>
+        <v>7114</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5367</v>
+        <v>5345</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26557</v>
+        <v>27393</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21447</v>
+        <v>21849</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>38211</v>
+        <v>36776</v>
       </c>
     </row>
     <row r="24">
@@ -2543,31 +2543,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14716</v>
+        <v>14959</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8742</v>
+        <v>9519</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13192</v>
+        <v>12785</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3667</v>
+        <v>3731</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2345</v>
+        <v>2090</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17713</v>
+        <v>18309</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15201</v>
+        <v>15963</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>18231</v>
+        <v>16187</v>
       </c>
     </row>
     <row r="27">
@@ -2578,31 +2578,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34985</v>
+        <v>37299</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24051</v>
+        <v>23980</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>32565</v>
+        <v>32293</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12689</v>
+        <v>11729</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14860</v>
+        <v>13631</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11875</v>
+        <v>12145</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41577</v>
+        <v>40308</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>33581</v>
+        <v>33779</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>37229</v>
+        <v>38108</v>
       </c>
     </row>
     <row r="28">
@@ -2687,31 +2687,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>38110</v>
+        <v>37527</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>34595</v>
+        <v>37297</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>45448</v>
+        <v>44883</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7265</v>
+        <v>7375</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>18691</v>
+        <v>18541</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>40709</v>
+        <v>40939</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>46963</v>
+        <v>49026</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>72037</v>
+        <v>71221</v>
       </c>
     </row>
     <row r="31">
@@ -2722,31 +2722,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>66862</v>
+        <v>66224</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>63274</v>
+        <v>66992</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>85734</v>
+        <v>85577</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9617</v>
+        <v>8767</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22164</v>
+        <v>21864</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>41209</v>
+        <v>41217</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>71672</v>
+        <v>71826</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>78999</v>
+        <v>80611</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>118343</v>
+        <v>120061</v>
       </c>
     </row>
     <row r="32">
@@ -2831,31 +2831,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>33232</v>
+        <v>33322</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>28114</v>
+        <v>28060</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>85425</v>
+        <v>87434</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2914</v>
+        <v>2933</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>4741</v>
+        <v>4361</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>34920</v>
+        <v>36391</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>31658</v>
+        <v>33686</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>92915</v>
+        <v>93493</v>
       </c>
     </row>
     <row r="35">
@@ -2866,31 +2866,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>61025</v>
+        <v>60395</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>51963</v>
+        <v>53197</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>130650</v>
+        <v>130434</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>9381</v>
+        <v>9398</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13308</v>
+        <v>13899</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>18121</v>
+        <v>17122</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>63278</v>
+        <v>65682</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>58641</v>
+        <v>59669</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>142689</v>
+        <v>140007</v>
       </c>
     </row>
     <row r="36">
@@ -2975,31 +2975,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>221459</v>
+        <v>226608</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>186936</v>
+        <v>188047</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>275321</v>
+        <v>277790</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>18035</v>
+        <v>18984</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>32829</v>
+        <v>33462</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>53204</v>
+        <v>52444</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>245560</v>
+        <v>247426</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>231160</v>
+        <v>228822</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>332699</v>
+        <v>340212</v>
       </c>
     </row>
     <row r="39">
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>286395</v>
+        <v>287346</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>244413</v>
+        <v>248013</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>362168</v>
+        <v>362858</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>40672</v>
+        <v>40011</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>59039</v>
+        <v>59682</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>87760</v>
+        <v>84559</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>318040</v>
+        <v>317461</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>292631</v>
+        <v>295449</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>430725</v>
+        <v>430923</v>
       </c>
     </row>
     <row r="40">
